--- a/data/trans_orig/P21D_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Edad-trans_orig.xlsx
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3133</v>
+        <v>4139</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002523630514782984</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01056069312504493</v>
+        <v>0.01395332736717316</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3060</v>
+        <v>3751</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001363187242282379</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005572827798779745</v>
+        <v>0.00683005201315081</v>
       </c>
     </row>
     <row r="11">
@@ -1155,16 +1155,16 @@
         <v>295886</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>293502</v>
+        <v>292496</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>296635</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9974763694852169</v>
+        <v>0.9974763694852171</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9894393068749555</v>
+        <v>0.9860466726328269</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1176,16 +1176,16 @@
         <v>548404</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>546093</v>
+        <v>545402</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>549153</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9986368127577177</v>
+        <v>0.9986368127577174</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9944271722012203</v>
+        <v>0.9931699479868492</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2821</v>
+        <v>3920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002763044064043484</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01110010108854132</v>
+        <v>0.01542209625533041</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3368</v>
+        <v>4204</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001372598132920229</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006582680303331961</v>
+        <v>0.008216261518388411</v>
       </c>
     </row>
     <row r="17">
@@ -1525,7 +1525,7 @@
         <v>253474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>251355</v>
+        <v>250256</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>254176</v>
@@ -1534,7 +1534,7 @@
         <v>0.9972369559359566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9888998989114587</v>
+        <v>0.9845779037446692</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>510955</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>508289</v>
+        <v>507453</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>511657</v>
@@ -1555,7 +1555,7 @@
         <v>0.9986274018670799</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9934173196966679</v>
+        <v>0.9917837384816116</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5147</v>
+        <v>4521</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0008550102495476257</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.003032907023771108</v>
+        <v>0.002664166611066165</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5706</v>
+        <v>4462</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0004443504841885753</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.00174751727754155</v>
+        <v>0.001366514325174383</v>
       </c>
     </row>
     <row r="26">
@@ -2064,16 +2064,16 @@
         <v>1695485</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1691789</v>
+        <v>1692415</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>1696936</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9991449897504524</v>
+        <v>0.9991449897504525</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9969670929762289</v>
+        <v>0.9973358333889338</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>3263759</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3259504</v>
+        <v>3260748</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>3265210</v>
@@ -2094,7 +2094,7 @@
         <v>0.9995556495158114</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9982524827224583</v>
+        <v>0.9986334856748259</v>
       </c>
       <c r="W26" s="6" t="n">
         <v>1</v>
